--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/37_Hatay_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/37_Hatay_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1018EF0B-E67E-4F6A-AF2C-C1A019FA51DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C69AEEB-9807-4CEA-9DD3-E259629DE4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{69FEBA62-6FDB-4F66-BEA7-DD1956964555}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{43A29D0B-C7B7-431E-808A-73E0B941A81B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4FD868E7-B5F6-45D3-999B-A3C8CCEA5A82}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D593F33F-4824-4904-B28E-BA2049D6B864}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B58F1FA8-B5DE-4887-87B4-CC3F7FE906AA}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C0135D9D-583C-41C4-B1D4-E2C68A217C76}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9124717F-300E-4036-A1AC-2946034FA038}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{1084EE48-35FC-4FC8-AF3C-2E0008CA29D5}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C8BE0BAA-5663-4846-8C52-A238B89985E4}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{068E2DAE-6174-4941-8419-98BCC662AA10}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E072D141-AA44-4631-B737-CDFECDBA299F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{1256978A-B34D-47D7-9DBA-1EA62BE317B6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{68C62A5E-6DEE-452E-9434-3D322362D013}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E4B06F7E-DB22-4395-84A9-FF7CD07C1CEE}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{15B6EB0C-15D8-4AA1-BF96-8F671927F09C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AC7963D5-466A-40BB-8A9F-49E9467C043B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76590F38-7001-42A2-9637-48383F364FC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECBC182-7C55-4D98-A44F-19BA8AB28988}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2631,18 +2631,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05F4FF7D-C4AD-49E6-88CF-80E6233D0476}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51EDAAF1-CB35-4DEF-9F17-53A7F4BCCD4F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{00630258-4AAA-4C54-8E33-EEAFF4FA4D08}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{36392760-A9EE-433D-8604-E79507833658}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9DBCD51C-E159-4BCC-A8FD-16B8DB685C90}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D343D86C-E5B3-4875-A06E-80F859F4F8A5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FFE53E44-5411-431D-B06F-13FE576BCA03}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A21AC72-307B-4C21-853F-3777A67B4D91}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CD8B0FBD-24BC-43C1-B69D-528D5626C4B9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0C246214-531C-4512-812C-2BA11DAA3E60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{839D1CAD-5CE7-4229-A0BF-84EFC5E2BD80}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{669B0F24-F184-4693-BEB6-81BDDD622189}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{122793BB-59ED-4801-9B0B-3FAF01950EF0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDB5D597-76AA-4DC6-B526-8A34BD85E60F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{768E7189-8FFE-4A3E-B44A-60248053B39D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{513FD352-9619-4F07-BBF2-A8675BE82791}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3468EDD1-C53C-48BB-8481-9432BA93903C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A60184D7-5F3F-4151-BB2F-2EDB59940BC6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D50D19C-5C94-4B21-87D3-9FE3CE3C649A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0327A27C-34CD-4B47-81AA-405E16FE5D94}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DDBAAAB-8407-4011-87C1-CF9084D28C8D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7CEDE7CD-EC9B-4318-9FE1-BD1FF64077A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{032BAED2-17F9-45A7-A076-AA9A26FDBDC4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6CD6268A-A258-4A3C-A161-BE57D2EBBBA6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2655,7 +2655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B41620-DDB3-4AEB-ADE4-88B5511E77AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AC10CB-2BAD-47D5-94C6-3BD6BCED4DB0}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3928,18 +3928,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1D4B9E4-EECE-425A-8E56-15F0255C09B0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{227B2B06-0E29-4CF3-AE15-371ADF3E8C7E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F3D6705-52F8-46B8-8161-A4C500AE2B8B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0CCF715-BE86-42FE-873A-141B77A70D5C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9AA92872-CDDE-4D3C-B30D-D24EA59D79E7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{29585005-94AC-4B01-B574-9F650C3066CF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{058782C7-739E-439E-B7AE-D6A802DAA819}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DB32F09-85A6-4999-BF2C-E05E7A2B1576}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D6765F6-1F30-4A5B-BB4D-051EA6899CCE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DCCB1AE0-D7DF-4E29-AC20-1386A82CAC9F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB146F36-D467-445D-A2A5-4D42E5703A5C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{898E3EDB-99FC-4496-AC29-9DBC4CB35217}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC7D4B22-BDBE-4997-BB85-F0772D924058}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1810241D-855D-4748-9EEE-55D12AF833A3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{48CCDE33-6B07-4CF4-9059-0BE5588174A8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F4A783EC-C5AA-4495-8E2A-0E2BE1338731}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48FDD2C5-05CE-439A-97B5-F51B3B349E0E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F1683793-D8FD-4FEF-A44A-438188E70DD6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A60F2A72-0F5D-4DCE-8767-5BD7DC611B0D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E899DF40-DF46-4B73-9228-C49402C0E5F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CD586CE3-844D-4DD5-9761-9ED4B59F211B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{66216040-1023-4815-9ADD-5901B9CCDD99}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9CC4FA1-1684-4FAA-AB7D-12268693EE3D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34707A54-0132-4790-8D4B-6330310748A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3952,7 +3952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A710C43C-6E41-45E4-A203-F86562FAD696}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984DCAAF-CAC5-4F35-BFB2-863EC853E83E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5221,18 +5221,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B580B16-3DF6-465D-8BBA-2BE338083B67}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6FC1065-E1D2-4A6B-9E5E-C5B8310F6FC4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C4353F08-BE2A-41F7-976A-7278B8AB49AC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AFB59B83-CFF6-4CF1-B834-C932BED9A024}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCE8EDF6-3F2F-4D10-849C-82242D813675}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6883BE02-914C-430B-9590-71DBCAC38E26}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36042F6F-7506-40B9-A190-6D21CA8C1D03}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B4FDC66-47D9-4422-B1FE-6A8808DD36F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A71EE4B-2C65-4859-AA86-2FDD2A131244}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FF0BCC38-C125-4924-BFBA-96ACD66C6A7C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CA1B038-A67D-45B1-9425-E2DA91EE9400}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E789062-58C7-472A-AC78-9F16E2E83D18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A0614520-01F3-49E5-8043-1E966AA3502A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82404FFF-8BE1-435D-B6BD-D1C1F4C43863}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{66133932-6A3D-426B-AADE-45094DFBC767}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5D581626-6D04-4875-9827-80E400BD7AA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{44B2E7A1-7D9F-4B3B-A515-3BA9D5DF6544}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3E9191C9-36B1-458C-9D96-F8F3FADFA075}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FAFF6BC6-A6AF-4D89-B6A3-D2F77DABAEE2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC7BDA26-0F4A-4CA6-BF8A-946B13AD41FE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97E28D17-C2E1-42B4-9E5E-6ACE5ABE934A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7CE128DE-C1A6-4ED4-91B1-B398C51609D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20148EC4-16BA-4F41-B527-C0C87E858BDF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9D55AAD-D5DE-4472-BE8B-9C1E289D79AF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5245,7 +5245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED49BDE-FE95-4296-866E-3F6942C9B409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA0E4ED-6C6F-4818-BD5F-F71ED5D5F85C}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6509,18 +6509,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84841FB7-C08F-4C91-A949-763B54A157E0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C91CD918-95D8-46C9-91B8-E7A07D3F53FD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F81446C8-9430-42E1-B4C1-0B30FCDE8515}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{55A9CEDD-8577-4C3D-96A6-6C74F72A9121}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C62BC25E-4A07-4382-9573-EA5B7155235E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{081EC39A-AAD3-461C-B175-F14C61D9D446}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D4E35C4-954F-4A80-87E3-98FD7F4A90B4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D51964A2-B866-4BBB-81ED-600BAEFA4913}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FDC12659-F4B8-4C30-A93C-2BAE5AEECFA3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8EAB4A24-40A3-411A-8B75-DAE8C7C8B5E9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04A6C5E4-DA0E-43C7-A860-8D7B887B619D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D03A9E55-B117-43BA-A6EF-718E55A05FE6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFCE63DB-0032-44D6-AD95-371F4596E19B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88FBB9AD-E7A3-4243-8110-0CF01E0B61C0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2594FF37-50AA-4AF9-B520-2FD5F6DD9037}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8B1E3B6-A570-42F1-ADF1-3D3CA8751F2D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A31248EB-631C-4C0E-81DB-002968DDF1D9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2E381197-A187-4573-8ECD-C96380398F1D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2133A3A6-6D87-4248-B732-22C0B3BE82A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6DBEE10A-6FC1-44EA-B683-C9CB04E1E9EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E72ABCC5-8515-4F2F-8DBB-F19472934F50}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EC02C86E-51F5-405D-AEB3-1A76855E4B00}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBF4F83F-8E21-4C0A-A372-36E25BBCC0A5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B3358AE2-6D42-4600-AB5A-3799F6DBA7FE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6533,7 +6533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA438961-9851-42A4-B6F2-CE4606DBC8CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E10377-E6BF-4F20-8EF2-055225ADF279}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7840,18 +7840,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7759F968-237B-447F-8F72-CB83B66B5D77}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{973D03F6-A90A-411F-8F41-677F91A08A36}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79923C39-33BC-437F-8ED9-5D1DDD18651F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A50920C-0B87-4AE0-B2F0-1E33DB7CC5F9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6DB4A082-B833-48FD-8748-A370E8016526}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F0D5612B-2550-4D4A-B6EE-3B0CC1405AD2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00AA44AE-5EF9-422B-A03F-C92AD3B16F79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87A07556-760F-4424-8B23-2072DA60A047}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{265835E5-B40A-4D94-945F-4A0999D764F6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BCCF58A5-8885-4F6E-8231-6A6AE8E1983D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45A3ADBD-BCDA-41AB-8A8E-6835DCF82E03}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B69E24EE-D5E1-49D4-A0F0-A2E59D9411FE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F2A7B99-A076-4133-954C-8BA81A1A9E04}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD0F2EC7-BA84-4274-BAEA-7B925C5839A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{29D8FB06-96CB-4C40-AA40-DA570F5233DB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CD391BD-139C-40A9-A017-6CCC03C28569}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{719BCD6D-4F27-40E3-AE59-C39F54233997}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{39EDF160-8737-49F5-9C75-E9F835D50516}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{481A1705-AFC1-4E31-9933-A1C616721CE0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65FC80D6-C377-413D-AA3B-EE12DA47BC37}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33534151-6E22-4719-86E6-092A83D46DF5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{33F768E1-961F-40C2-AC1B-37B414A7C74A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55FC5577-2B2E-4D3F-B8FA-70D43AEA0843}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A56D4AC7-E2C9-4185-9BA7-7A006F626B7B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7864,7 +7864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A49F32C-62E2-4BBC-BBCD-D9EFABB488DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9250BF5-5C15-47D8-8FC6-D07BE4EC50D8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9171,18 +9171,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3C93E9A-3930-4946-8BEF-0F012A8C7A75}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FCCCA9E-7D7A-4BCB-8530-84111658BE05}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9E09C532-D687-4C51-AE9E-FBA6637544E4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73327A12-0989-4774-A795-97F7654AE018}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32A3552A-2A67-4159-9FA1-C28F0596C9A2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3C4CF6DE-3EF1-481A-80CC-625EAB14BB1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2F3F3AE-B889-4CDE-A424-73D05ECD0978}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09CE6539-E7ED-4954-A360-92EB6A8F1EB5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F8CF5FD-4B33-42B2-97FF-B687959A9D42}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5C9A88B5-7896-437B-9415-2201D032D28E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40B2AE8C-5A34-4D05-8459-68E43FF85B52}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D979CA9-68CB-415C-AE3A-2E0BFE3B80FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4E46EBE-59C7-4750-9408-F54F49E28210}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A7660295-4EB3-4A28-AAE8-F8B06DB342C5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{517A385E-C51E-4975-A6C7-E91F91680A6F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5751B6D1-2CB9-4290-8B37-847096609204}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1C7E2A2-801A-41CD-93B2-DD4D6574C9C6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CA3DB981-9649-4400-A348-0464B09C7B4F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE5EAEE6-2BAF-416E-B8DB-A5B994798061}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B53B30E-115A-4205-B23E-BC71AFCB6D29}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A36C8AC7-32F7-440D-AC18-3D8F84D8A536}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{50BA180E-A480-49DB-987F-F6E966384787}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C7E9C64-E864-4B1B-BFD2-0B175E261382}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{93BD51CA-BEC3-4931-A1F8-D60294E9865C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9195,7 +9195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC2EA3-D510-4082-9180-99710F58315E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121C0469-7D11-4437-80BD-ADE80956B4D9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10502,18 +10502,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC9CC9D3-A929-486E-9C17-552212339C88}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{496A6F74-414C-403D-B9F2-651D04172E3C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0298DDD8-4831-463E-A0C6-6F904BA02D73}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B46A997E-0DEC-49A7-86DB-962E82317DCC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C81822D-56AF-454F-B315-E0EC1121E451}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6A76BF99-95AA-4AF7-A234-E4D48B543724}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AC67927D-9CFE-461A-896F-05B338A890BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8013F07E-7F6D-4D3B-9CF8-C008337884F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AAC51C43-1C44-449B-97B8-7A4AF23C3FD0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EFF70274-C1D4-4424-9301-8F07E7CAF4DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D21B19A5-A25D-49F0-A054-DF21E5A06F58}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4017D96-3E8A-4BA5-8052-BC0F184D90B1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07A29127-291E-45C9-BB06-91B3203F5E8A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8778F080-E168-4783-A29A-315A0CBC033A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{77594332-88D9-4441-A9AA-8B0D381BD5B6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A1C5533F-F258-4EFC-9914-663B3DCF2FD5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{49EF8B4D-7C6A-4686-9F4E-A647E06EEE5D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FA248E94-8802-492B-B562-7A9E7C619896}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4A8B5D8-E52F-4D73-B800-855BA6F64244}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7B9B96F-CC85-4655-AAA1-2C3E8690DDC5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9241A616-7F36-413D-AEE4-63A25200B8C7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{113E99DD-C61A-4975-B4D8-C7ECD4C2DC30}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC683877-1904-4436-B5BA-26C18AE34480}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3AE9F03C-AEF7-474B-8B1B-0FA4B53900BD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10526,7 +10526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5CBB41-E2B6-4E49-9396-2B7FA7F76F30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDFBB69-7676-4F08-BF24-562FE6A72683}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11833,18 +11833,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3BCFE41-752A-4132-8AE5-07676B247A09}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69457346-2635-49AD-93C7-3FD1E66A504C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4460395A-70FD-46ED-95F1-25B8EE6CD2F0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{17B6E78F-605F-4A01-BAE5-87878CF53206}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BB6ED0DB-530F-467E-A1C0-93EF34E20339}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C3D918EF-9373-493B-8CD9-AAB59D28DD2F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0851054F-D312-4CFC-BE82-EA70935293CF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D405EF82-5B2B-4789-B61F-1F352C3DC99D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C07D871-FDD2-44F9-B8D9-5CA108F741AD}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E5EA914D-3DE2-406D-93AC-16E0A9BC855B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5D381C2-0051-4570-AB94-DD989EC778CD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4A2542BB-5EC9-42A3-8D99-2DEE15BF7AB8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B72ABB69-C96B-4351-80A7-EFB6EF9EEF49}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62151017-DF72-43ED-A2E1-F897494E2DCC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A59BD39C-4EA1-41FC-9411-636FCFFE3B06}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E6B52327-E800-44DE-9381-5ADB5CCF4119}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AAFEBEA8-6F24-42B4-A092-A0EAF403F47F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0E7F1366-6FDF-4B47-A3C5-36C1CE54DFDD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC46E9C1-5E9F-4383-B7D1-4C142116115A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33676050-2507-46DA-823C-6D4B6C7D8A74}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3CAE9A0B-E2AA-4DE5-BAB8-34F9AC9CF494}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6D079A4F-E469-45F5-B5E7-F89CF636FFD0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6FE2AA86-A29E-4D2E-90D9-F99BE3137EE1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28526C53-BD67-4396-9EB2-5F96EC3C9400}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11857,7 +11857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7650E7B-A7ED-4D34-A5C7-BBA50ABE32F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDB84FC-11E4-4057-AF39-79504BA80641}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13156,18 +13156,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B02005C1-B22C-44A1-A0DB-C9863CC60AB6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EFD2A94-9616-4AED-B3D8-4F03C4275580}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2ADC5353-AB1B-4165-8C1C-845D1A983DB9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16FDE839-F5A6-423C-B995-6FC010CE0880}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1E8ACDB-6946-480E-B853-2825058F6CAA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D1724CA2-E1C3-45F4-B474-F1AD63E95154}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{08FA9853-A99F-4F0B-93D0-83CAF6DA7685}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F405B5EB-3744-4481-A56E-3EF870CABC20}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1F90511-4C51-4663-AD6F-F5A7167D11EB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D5FF2EFF-8082-497F-8EEF-A8CB586CD974}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD903180-DA3A-4F52-B575-D44969D3F2F0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5B69005-6ABA-45A0-9914-BDBDA1B707B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2022E30C-98AB-44C5-88FF-938A70C04E7A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{256A7928-AA77-481F-B6BF-4FC13AA24ABE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA66C998-725E-4F03-809C-EAC0D4E362FE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{48732B71-0A3C-41A2-A806-461CA76F5931}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{324C1897-C9A5-47E8-B79F-76B0A6B9D9E1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3C3169A2-E7C5-49B2-B84B-C83E49265AE9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FB725F0-854C-47ED-8930-6A3ADCD28DCB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F15F44D9-C96A-4041-B813-D60245B87AE6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15BFC888-A888-495B-947B-12DCC14EEE01}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6D7C96E5-E602-4B75-853D-74A514601451}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2EECF62A-032F-4AF3-8AF7-6FC9731EB434}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24FB1DB4-7FAA-46CA-AE5D-BF64F952D7C0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13180,7 +13180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D448842-EB8E-4070-B606-700F02C77621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1C7E1D-7D18-4597-9999-34F825325B0C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14461,18 +14461,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B052841-33DB-4460-96EF-4A140E66B202}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4209F0E6-E303-43B9-A011-BF12454F605E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{69427EFB-2245-4B70-B900-797A70D41E55}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B3D49EA-1CEB-47AE-A911-751EBB308F98}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8CE0DCC-DA12-4532-BDD1-CCBC344299FD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{01C58E1D-6F8C-48A8-A0BA-CF9B7D3731FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE448E39-5AFD-4865-ABEB-9AB04C50A73C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D43797D-B1AA-4CDA-AD71-039FDDF8EBDA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1BA0CFA7-333C-416C-85F8-DC5546BE169E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B980D95D-904F-4FAA-A0DE-0A80FC4D38C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6B36530-134B-480C-8381-D6721BCB4AB4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F00FEEEE-A079-4B9A-B2C9-85BBDDDD4829}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B4C144B-0B57-442C-8651-F6830EAE509C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D3374231-765E-4872-A71C-5F6E787D7777}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3DC6F474-B3F6-4742-82BE-1E3AF6588498}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D1CFE8C2-D569-400F-BA4F-77CAC5729593}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{025CEB2C-353D-40E4-8001-160FDEFE52FD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B0C3DC5E-324D-4B2D-833F-33618D391F49}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{545F5395-EB20-425C-8220-D389C805AF24}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAD42B2E-240B-464A-A667-88B4B852293D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{928B1539-8AE8-43FB-9CE5-999893823804}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C3074DEF-4AD6-450C-A340-A4AF1DAC062F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A58647D7-333B-481D-B22E-42678FDD852C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F73C43E3-111A-43E2-951C-A3119E97CADE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14485,7 +14485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B5917E-E101-4345-BFED-A424CCDF2798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22938230-3C47-49D5-8741-95A3AB89DC34}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15762,18 +15762,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7264D959-D985-4C9E-AB2A-5FBAA6759EEF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7426C595-54DD-41C3-ACD6-72CD76E381DE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8D382548-452D-4403-8AC2-80AE714542DA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CE19DEA0-0F41-4596-B82A-4A5165C5F949}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61553C94-29D8-46D6-9BDE-9A4A4197B4EA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EAC67810-C7BF-4AC1-A7F2-D8223805B8D7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{490B3558-745C-4EAB-99B2-75C390A000A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D69232D-E25C-4FF5-9507-C548C2C06FDE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{57285972-40D5-42EF-A8F7-E1ECBB856181}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4215D50F-DB59-43CA-B692-C454A360A3E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{383425A8-1B56-49BD-A8E9-948D156AE966}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F65CC2D-03F8-4895-A915-235B573049AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{572EC340-C4C9-432D-9C32-A69E5DFFF766}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B841B59C-88B0-4CD7-901A-447956DFCC87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5106C0CB-F7CB-4DD9-BAA6-12E01CC8CF1F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE91DDA8-668E-4A74-92FF-6AF9E36DC5F3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1BB3CA79-E644-4F48-A890-9267EA6F77A2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{601D5BE6-9EF7-4E6F-A569-7BCE715F4F47}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{652A19E9-6BB9-4EFE-B58A-4DD9BB6920BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9CCE309B-EADB-4AFD-9B89-43809A5BBB9D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E6AF9D6-4FA7-41B7-996E-DCDCF6AB6E12}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5981B1F1-AE5E-4FD0-83B4-E05245019480}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9A66553-6221-4F00-B1B3-2E839E276486}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18325EBC-5AC2-4AE4-A4EE-89BACE7331C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15786,7 +15786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F21CAF-9214-444B-AD61-5D67E41B248E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B67B7F-6935-4457-9334-CDEE387A3F24}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17063,18 +17063,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C5BD2E2-C38B-44C4-8CDC-58D0DB96CBD2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71CF5707-E90B-4D16-B0EE-C306AD8B05E9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5587ACF-760C-48E2-B58B-366BFA24C245}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{46502AEB-5E2A-48FF-8483-C1A99145C0F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4659E97C-0F3A-4065-85C6-8DA7CEC8D553}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9DA4CBDD-A6F0-499E-BE45-8104BAF9AF16}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69E9EE2B-D4DA-4A06-ADCF-195693A40CD3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3244A88-788B-462B-A310-32E58DD31CC9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E8B1DE6D-6344-4E9C-8CAE-2BAF03F84C51}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AD822855-E3DB-42F7-97AF-AD48386BF053}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DE66516-C7A8-4CF8-8F88-0214D62E43D6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{66E08505-B565-4CB3-BD85-8159B621625A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BC9E04A-AC28-4192-B015-56D1C491AF61}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C134F237-D178-4D6C-BEBC-772357D48D9E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B522E681-6436-434E-B924-76EA462DC044}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{484EF0A0-1629-45FD-A317-7A73DB9F351C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB277609-BFBD-42D9-A953-D055D63167AE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3BCAD926-C0F3-4E07-8751-F4AEE0316D88}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BB773DC-B712-480A-9FAB-37FBE716CC7C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2F8C7C5-C46C-4D31-A85E-3BFA4D4D03EF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2F74543-CDD6-4136-A8DD-C21F108A8280}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{60098E1E-2023-40D9-892B-FCFA0A5C0825}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{594C0475-F9E2-4F89-AE7B-CEF7FD365743}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BBD4850E-35EF-400B-88DC-EF0DE94834F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
